--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\Downloads\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\Desktop\Projet\Portfolio\Portfolio\WilliamMollet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66391A4D-3B0B-4B7C-B503-9B94B1AC2FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D393DE-E872-457B-B633-29A88ACC70D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Compétences mises en œuvre
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Création d'une application mobile avec dart et Flutter pour l'entreprise M2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° candidat : 02244065480 </t>
+  </si>
+  <si>
+    <t>Centre de formation : IPSSI Saint-Quentin-en-Yvelines</t>
   </si>
 </sst>
 </file>
@@ -761,38 +761,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,6 +801,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5672,8 +5672,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5686,84 +5686,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
-        <v>24</v>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>22</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>25</v>
+      <c r="A3" s="40" t="s">
+        <v>23</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33" t="s">
-        <v>20</v>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
+        <v>37</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>15</v>
+      <c r="A4" s="43" t="s">
+        <v>38</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>35</v>
+      <c r="A5" s="37" t="s">
+        <v>33</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -5785,8 +5785,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
@@ -5842,16 +5842,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>18</v>
+      <c r="A8" s="29" t="s">
+        <v>17</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="22"/>
       <c r="D11" s="23"/>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
@@ -6354,16 +6354,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
-        <v>22</v>
+      <c r="A19" s="32" t="s">
+        <v>20</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
@@ -6718,16 +6718,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>23</v>
+      <c r="A27" s="32" t="s">
+        <v>21</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -6766,7 +6766,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -7178,6 +7178,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -7185,17 +7190,12 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy\Desktop\Projet\Portfolio\Portfolio\WilliamMollet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D393DE-E872-457B-B633-29A88ACC70D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AB538-D1FA-4111-9C38-01FCEDD0AA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -161,6 +161,24 @@
   <si>
     <t>Centre de formation : IPSSI Saint-Quentin-en-Yvelines</t>
   </si>
+  <si>
+    <t>16/01/23 au 14/04/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/10/22 au 09/01/23 </t>
+  </si>
+  <si>
+    <t>04/10/21 au 31/03/23</t>
+  </si>
+  <si>
+    <t>07/07/2022 au 25/09/22</t>
+  </si>
+  <si>
+    <t>12/12/22 au 13/01/23</t>
+  </si>
+  <si>
+    <t>04/07/22 au 04/07/23</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -239,6 +257,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,9 +780,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -761,14 +789,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,29 +855,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5066,16 +5109,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381128" cy="609603"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Signe de multiplication 10">
+        <xdr:cNvPr id="18" name="Signe de multiplication 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E264AD59-709B-4B7D-92BC-6B4B8646788C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D3C5C6-A698-4905-9328-9DD53E7AF05D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10423071" y="12055929"/>
+          <a:off x="10406285" y="12097640"/>
           <a:ext cx="1381128" cy="609603"/>
         </a:xfrm>
         <a:custGeom>
@@ -5672,8 +5715,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5686,56 +5729,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="33"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -5747,22 +5790,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5785,21 +5828,21 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -5842,16 +5885,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -5892,13 +5935,15 @@
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="47">
+        <v>44810</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -5939,13 +5984,15 @@
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="47">
+        <v>44873</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -5986,12 +6033,14 @@
       <c r="A11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -6032,13 +6081,15 @@
       <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -6079,13 +6130,15 @@
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -6126,7 +6179,9 @@
       <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="47">
+        <v>44957</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -6173,7 +6228,9 @@
       <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -6217,8 +6274,12 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="49">
+        <v>44950</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -6262,9 +6323,7 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6354,16 +6413,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -6404,10 +6463,12 @@
       <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
@@ -6718,16 +6779,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -6768,10 +6829,12 @@
       <c r="A28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
@@ -6815,10 +6878,12 @@
       <c r="A29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
@@ -6862,10 +6927,12 @@
       <c r="A30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
@@ -7178,11 +7245,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -7190,6 +7252,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
